--- a/data/hotels_by_city/Houston/Houston_shard_413.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_413.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56427-d507305-Reviews-InTown_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Intown-Suites-Pasadena.h13279686.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,107 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d507305-r283599727-InTown_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>56427</t>
+  </si>
+  <si>
+    <t>507305</t>
+  </si>
+  <si>
+    <t>283599727</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>Nice extended stay</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 weeks while working in Houston. For the area it is priced right. Room was clean, flat screen T/V, stove top, full size refrigerator, cold A/C. The only thing I did not like was the $50.00 deposit was still being collected here. The majority of extended stay motels (Intown Suites included) have stopped this practice. I had to stay until 11;00 on check out day in order to get my deposit back as I had paid cash. Even when you pay with a credit card it takes a week for it to get back on your card. Overall a good stay though. I personally will not stay here again because of the deposit issue. Staff was great, property was well maintained, and room was clean and quiet. I felt safe during my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 weeks while working in Houston. For the area it is priced right. Room was clean, flat screen T/V, stove top, full size refrigerator, cold A/C. The only thing I did not like was the $50.00 deposit was still being collected here. The majority of extended stay motels (Intown Suites included) have stopped this practice. I had to stay until 11;00 on check out day in order to get my deposit back as I had paid cash. Even when you pay with a credit card it takes a week for it to get back on your card. Overall a good stay though. I personally will not stay here again because of the deposit issue. Staff was great, property was well maintained, and room was clean and quiet. I felt safe during my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d507305-r217120993-InTown_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>217120993</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>Good room, good price.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you expect for such a low price? A basic room with what you really need. Free internet, free cable on a 42" screen, a nice bed, oh and a kitchen.  Everything I need is within 1 mile distance. The people that work there are some of the friendliest people I've met. Very satisfied with my stay there. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d507305-r195169684-InTown_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>195169684</t>
+  </si>
+  <si>
+    <t>02/23/2014</t>
+  </si>
+  <si>
+    <t>Overpriced!!!</t>
+  </si>
+  <si>
+    <t>My suite was fairly clean. Not too bad. But the AC unit was falling apart and the tub was leaking! Yikes, hate to see that water bill. I work out of my laptop, so having reliable and fast speed internet is part of my livelihood. In order to connect to the internet at this place, you must buy a cable! LOL like how ghetto is that?! Yeah so they have internet service that works more at a dial-up speed. So if you're a business professional or just someone who enjoys and/or needs the latest in internet service, this place is completely out of the question. DON'T WASTE YOUR TIME AND HARD EARNED MONEY!! Also, their webpage advertises one price and then they stick you when you show up in person. BEWARE!!! For the money you pay here, you can rent a much nicer hotel with more and better amenities. Hope others have better luck than me. Happy travels! :)MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>My suite was fairly clean. Not too bad. But the AC unit was falling apart and the tub was leaking! Yikes, hate to see that water bill. I work out of my laptop, so having reliable and fast speed internet is part of my livelihood. In order to connect to the internet at this place, you must buy a cable! LOL like how ghetto is that?! Yeah so they have internet service that works more at a dial-up speed. So if you're a business professional or just someone who enjoys and/or needs the latest in internet service, this place is completely out of the question. DON'T WASTE YOUR TIME AND HARD EARNED MONEY!! Also, their webpage advertises one price and then they stick you when you show up in person. BEWARE!!! For the money you pay here, you can rent a much nicer hotel with more and better amenities. Hope others have better luck than me. Happy travels! :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d507305-r171968953-InTown_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>171968953</t>
+  </si>
+  <si>
+    <t>08/12/2013</t>
+  </si>
+  <si>
+    <t>worst stay in the usa ever</t>
+  </si>
+  <si>
+    <t>this was my worst experience with a hotel in the usa so far. i blame myself because i could have avoided this place if i had read the reviews BEFORE.
+the room stunk when i moved in. when i compained the manager told me that it does not matter. i had no choice because i had lots of goods to pack and ship to another country. 
+i found lots of long hair in the bathroom obviously from the person staying in the room prior to me. cockroaches of all sizes visited me every day. in the laundry room all washers were 'out of order' except one which was blocked when i wanted to use it. when i complained i was told that they had ordered new ones (that is why they put five !! old ones out of order???). almost everyone i met was very rude and showed no sense for customer service. at checkout i had to wait for a long time because they had to inspect the room (i have only experienced that in very poor crime ridden countries, never in the usa) before they gave me the deposit back in CASH. 
+in order to access the web i had to buy a cable in the office store. how retarded is that?
+on top of all that the hotel refused to keep my boxes for pickup from a shipping company for one day. any hotel anywhere in the...this was my worst experience with a hotel in the usa so far. i blame myself because i could have avoided this place if i had read the reviews BEFORE.the room stunk when i moved in. when i compained the manager told me that it does not matter. i had no choice because i had lots of goods to pack and ship to another country. i found lots of long hair in the bathroom obviously from the person staying in the room prior to me. cockroaches of all sizes visited me every day. in the laundry room all washers were 'out of order' except one which was blocked when i wanted to use it. when i complained i was told that they had ordered new ones (that is why they put five !! old ones out of order???). almost everyone i met was very rude and showed no sense for customer service. at checkout i had to wait for a long time because they had to inspect the room (i have only experienced that in very poor crime ridden countries, never in the usa) before they gave me the deposit back in CASH. in order to access the web i had to buy a cable in the office store. how retarded is that?on top of all that the hotel refused to keep my boxes for pickup from a shipping company for one day. any hotel anywhere in the world would have done that with no problem. i had to rent a car and drive the boxes to the shipping company instead.when i left i told the unfrienldly employee that she would never see me there again. she said: i do not careMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>this was my worst experience with a hotel in the usa so far. i blame myself because i could have avoided this place if i had read the reviews BEFORE.
+the room stunk when i moved in. when i compained the manager told me that it does not matter. i had no choice because i had lots of goods to pack and ship to another country. 
+i found lots of long hair in the bathroom obviously from the person staying in the room prior to me. cockroaches of all sizes visited me every day. in the laundry room all washers were 'out of order' except one which was blocked when i wanted to use it. when i complained i was told that they had ordered new ones (that is why they put five !! old ones out of order???). almost everyone i met was very rude and showed no sense for customer service. at checkout i had to wait for a long time because they had to inspect the room (i have only experienced that in very poor crime ridden countries, never in the usa) before they gave me the deposit back in CASH. 
+in order to access the web i had to buy a cable in the office store. how retarded is that?
+on top of all that the hotel refused to keep my boxes for pickup from a shipping company for one day. any hotel anywhere in the...this was my worst experience with a hotel in the usa so far. i blame myself because i could have avoided this place if i had read the reviews BEFORE.the room stunk when i moved in. when i compained the manager told me that it does not matter. i had no choice because i had lots of goods to pack and ship to another country. i found lots of long hair in the bathroom obviously from the person staying in the room prior to me. cockroaches of all sizes visited me every day. in the laundry room all washers were 'out of order' except one which was blocked when i wanted to use it. when i complained i was told that they had ordered new ones (that is why they put five !! old ones out of order???). almost everyone i met was very rude and showed no sense for customer service. at checkout i had to wait for a long time because they had to inspect the room (i have only experienced that in very poor crime ridden countries, never in the usa) before they gave me the deposit back in CASH. in order to access the web i had to buy a cable in the office store. how retarded is that?on top of all that the hotel refused to keep my boxes for pickup from a shipping company for one day. any hotel anywhere in the world would have done that with no problem. i had to rent a car and drive the boxes to the shipping company instead.when i left i told the unfrienldly employee that she would never see me there again. she said: i do not careMore</t>
   </si>
 </sst>
 </file>
@@ -532,11 +639,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +671,337 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>44857</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>44857</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>44857</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>44857</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_413.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_413.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,54 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/11/2018</t>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d507305-r374351090-InTown_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>56427</t>
+  </si>
+  <si>
+    <t>507305</t>
+  </si>
+  <si>
+    <t>374351090</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Waiting for an Apartment</t>
+  </si>
+  <si>
+    <t>I enjoy the stay at InTown Suites the price but it was high there in Pasadena, the visit at Webster location was a lot affordable and I feel the rate at this location should be lowered.  It was a stay for waiting for an Apartment and where we will be staying for a longer period of time it let me have the time to select, however I felt the Manager in the front office could be more friendly and hospitable to customers</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d507305-r312540737-InTown_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>312540737</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>Temporary stay</t>
+  </si>
+  <si>
+    <t>Rooms are smaller then what they use to be.lots of bugs get under the door and through the a.c. and people throw there cigarette butts down from upstairs on your car and the grounds could be kept cleaner.its basicly safe that and over all quite</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d507305-r283599727-InTown_Suites_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
-    <t>56427</t>
-  </si>
-  <si>
-    <t>507305</t>
-  </si>
-  <si>
     <t>283599727</t>
   </si>
   <si>
@@ -214,6 +250,48 @@
   </si>
   <si>
     <t>My suite was fairly clean. Not too bad. But the AC unit was falling apart and the tub was leaking! Yikes, hate to see that water bill. I work out of my laptop, so having reliable and fast speed internet is part of my livelihood. In order to connect to the internet at this place, you must buy a cable! LOL like how ghetto is that?! Yeah so they have internet service that works more at a dial-up speed. So if you're a business professional or just someone who enjoys and/or needs the latest in internet service, this place is completely out of the question. DON'T WASTE YOUR TIME AND HARD EARNED MONEY!! Also, their webpage advertises one price and then they stick you when you show up in person. BEWARE!!! For the money you pay here, you can rent a much nicer hotel with more and better amenities. Hope others have better luck than me. Happy travels! :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d507305-r185083084-InTown_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>185083084</t>
+  </si>
+  <si>
+    <t>11/18/2013</t>
+  </si>
+  <si>
+    <t>Never had a bad stay</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel plenty of times and never had a bad stay.The employees have always been friendly and have went out of the way to call me by name.Maria in housekeeping is a real asset to this company and has been there for years.I have never had them inspect my room at check out like the other reviewer stated and always have gotten my deposit back.Yes,you do wash your own towels which are yours when you leave also which above reviewer failed to mention.There is toilet tissue,trash bags restocked when they clean your room.They just don't empty the trash can and not put anything back in it.When staying here it is a extended stay which most people understand you will need to supply stuff yourself.There is an Heb next door and numerous stores right down the road (walmart,target,best buy ect)to shop at.I will stay here anytime I am in the area because they are friendly,polite and have never had a dirty room when I have checked in.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel plenty of times and never had a bad stay.The employees have always been friendly and have went out of the way to call me by name.Maria in housekeeping is a real asset to this company and has been there for years.I have never had them inspect my room at check out like the other reviewer stated and always have gotten my deposit back.Yes,you do wash your own towels which are yours when you leave also which above reviewer failed to mention.There is toilet tissue,trash bags restocked when they clean your room.They just don't empty the trash can and not put anything back in it.When staying here it is a extended stay which most people understand you will need to supply stuff yourself.There is an Heb next door and numerous stores right down the road (walmart,target,best buy ect)to shop at.I will stay here anytime I am in the area because they are friendly,polite and have never had a dirty room when I have checked in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d507305-r172590011-InTown_Suites_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>172590011</t>
+  </si>
+  <si>
+    <t>08/16/2013</t>
+  </si>
+  <si>
+    <t>stay away</t>
+  </si>
+  <si>
+    <t>This hotel makes you wash your own towels and will not supply toilet tissue, soap or trash bags. The staff here is very rude and you only get service once a week but they only change the sheets and vacuum. If you need a vacuum any other time you are not allowed to use it, you must wait until your scheduled day. They have an onsite laundry but only one of the machines work and they will not fix them. The beds are very hard and the room was not very clean when I checked in.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d507305-r171968953-InTown_Suites_Pasadena-Pasadena_Texas.html</t>
@@ -233,12 +311,6 @@
 i found lots of long hair in the bathroom obviously from the person staying in the room prior to me. cockroaches of all sizes visited me every day. in the laundry room all washers were 'out of order' except one which was blocked when i wanted to use it. when i complained i was told that they had ordered new ones (that is why they put five !! old ones out of order???). almost everyone i met was very rude and showed no sense for customer service. at checkout i had to wait for a long time because they had to inspect the room (i have only experienced that in very poor crime ridden countries, never in the usa) before they gave me the deposit back in CASH. 
 in order to access the web i had to buy a cable in the office store. how retarded is that?
 on top of all that the hotel refused to keep my boxes for pickup from a shipping company for one day. any hotel anywhere in the...this was my worst experience with a hotel in the usa so far. i blame myself because i could have avoided this place if i had read the reviews BEFORE.the room stunk when i moved in. when i compained the manager told me that it does not matter. i had no choice because i had lots of goods to pack and ship to another country. i found lots of long hair in the bathroom obviously from the person staying in the room prior to me. cockroaches of all sizes visited me every day. in the laundry room all washers were 'out of order' except one which was blocked when i wanted to use it. when i complained i was told that they had ordered new ones (that is why they put five !! old ones out of order???). almost everyone i met was very rude and showed no sense for customer service. at checkout i had to wait for a long time because they had to inspect the room (i have only experienced that in very poor crime ridden countries, never in the usa) before they gave me the deposit back in CASH. in order to access the web i had to buy a cable in the office store. how retarded is that?on top of all that the hotel refused to keep my boxes for pickup from a shipping company for one day. any hotel anywhere in the world would have done that with no problem. i had to rent a car and drive the boxes to the shipping company instead.when i left i told the unfrienldly employee that she would never see me there again. she said: i do not careMoreShow less</t>
-  </si>
-  <si>
-    <t>August 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>this was my worst experience with a hotel in the usa so far. i blame myself because i could have avoided this place if i had read the reviews BEFORE.
@@ -782,29 +854,21 @@
       <c r="M2" t="n">
         <v>4</v>
       </c>
-      <c r="N2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +884,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -829,45 +893,39 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>57</v>
       </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -883,7 +941,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -892,41 +950,35 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
         <v>60</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>61</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>62</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>63</v>
       </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>64</v>
       </c>
-      <c r="O4" t="s">
-        <v>52</v>
-      </c>
       <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -971,29 +1023,25 @@
         <v>70</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O5" t="s">
-        <v>72</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1001,7 +1049,275 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>44857</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
         <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>44857</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>44857</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>44857</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
